--- a/Wiring.xlsx
+++ b/Wiring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/ttaylo26_calpoly_edu/Documents/ME 405 Mechatronics/405FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="8_{C74E5638-49A5-4EAC-B998-5EAB364CB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03C49848-F802-4F8B-AE8B-48ACACF5DF47}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{C74E5638-49A5-4EAC-B998-5EAB364CB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607D4C31-971F-4B14-B07D-C89E820F73D4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E59C9523-20E0-4551-A743-8A1D2F973276}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{E59C9523-20E0-4551-A743-8A1D2F973276}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,12 +493,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -508,6 +504,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,15 +530,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>21269</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>425787</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>555915</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120310</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>348950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -561,7 +561,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8760750" y="283516"/>
+          <a:off x="9165268" y="38923"/>
           <a:ext cx="6649461" cy="5500053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -873,34 +873,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EB2B3C-FAE5-4BEF-B0D6-A9ECBFA27CF5}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="129" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
@@ -908,20 +907,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
@@ -929,115 +927,103 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1046,25 +1032,24 @@
       <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1072,168 +1057,161 @@
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="10" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="10" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10" t="s">
+      <c r="F20" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10" t="s">
+      <c r="F21" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Wiring.xlsx
+++ b/Wiring.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="258" documentId="8_{C74E5638-49A5-4EAC-B998-5EAB364CB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607D4C31-971F-4B14-B07D-C89E820F73D4}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{E59C9523-20E0-4551-A743-8A1D2F973276}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E59C9523-20E0-4551-A743-8A1D2F973276}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EB2B3C-FAE5-4BEF-B0D6-A9ECBFA27CF5}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="129" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Wiring.xlsx
+++ b/Wiring.xlsx
@@ -5,38 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/ttaylo26_calpoly_edu/Documents/ME 405 Mechatronics/405FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\OneDrive\Documents\GitHub\405FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="8_{C74E5638-49A5-4EAC-B998-5EAB364CB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607D4C31-971F-4B14-B07D-C89E820F73D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCE31D2-AC64-4DBE-9471-BFC4D8B9FA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E59C9523-20E0-4551-A743-8A1D2F973276}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E59C9523-20E0-4551-A743-8A1D2F973276}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="10000" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateCount="10000" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>B5</t>
   </si>
@@ -294,6 +283,12 @@
   </si>
   <si>
     <t>I2C2 +3V3, L298 +3V3</t>
+  </si>
+  <si>
+    <t>GO BUTTON</t>
+  </si>
+  <si>
+    <t>GO BUTTON GND</t>
   </si>
 </sst>
 </file>
@@ -480,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,6 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,19 +870,19 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.1015625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.41796875" customWidth="1"/>
+    <col min="5" max="5" width="17.7890625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -906,7 +902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -926,7 +922,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
@@ -943,7 +939,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
@@ -957,7 +953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
@@ -971,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
@@ -985,7 +981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -999,7 +995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1016,8 +1012,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="11" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1036,8 +1035,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="12" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
@@ -1053,7 +1055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -1076,7 +1078,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="10" t="s">
         <v>30</v>
       </c>
@@ -1167,7 +1169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>33</v>
       </c>

--- a/Wiring.xlsx
+++ b/Wiring.xlsx
@@ -5,27 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\OneDrive\Documents\GitHub\405FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/ttaylo26_calpoly_edu/Documents/ME 405 Mechatronics/405FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCE31D2-AC64-4DBE-9471-BFC4D8B9FA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{C74E5638-49A5-4EAC-B998-5EAB364CB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09687248-5CE6-459D-87C7-6A1581433721}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E59C9523-20E0-4551-A743-8A1D2F973276}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E59C9523-20E0-4551-A743-8A1D2F973276}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateCount="10000" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateCount="10000" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>B5</t>
   </si>
@@ -285,10 +296,10 @@
     <t>I2C2 +3V3, L298 +3V3</t>
   </si>
   <si>
-    <t>GO BUTTON</t>
-  </si>
-  <si>
-    <t>GO BUTTON GND</t>
+    <t>Go Button</t>
+  </si>
+  <si>
+    <t>Manual Aim</t>
   </si>
 </sst>
 </file>
@@ -869,20 +880,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EB2B3C-FAE5-4BEF-B0D6-A9ECBFA27CF5}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="129" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1015625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.41796875" customWidth="1"/>
-    <col min="5" max="5" width="17.7890625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.7890625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -902,7 +913,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -922,7 +933,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
@@ -939,12 +950,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="23" t="s">
         <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>47</v>
@@ -953,7 +967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
@@ -967,7 +981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
@@ -981,7 +995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -995,7 +1009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -1012,7 +1026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>86</v>
       </c>
@@ -1022,6 +1036,9 @@
       <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>72</v>
       </c>
@@ -1035,16 +1052,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>73</v>
       </c>
@@ -1055,7 +1072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -1078,7 +1095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>27</v>
       </c>
@@ -1115,7 +1132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1132,7 +1149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
@@ -1152,7 +1169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
@@ -1186,7 +1203,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>33</v>
       </c>

--- a/Wiring.xlsx
+++ b/Wiring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/ttaylo26_calpoly_edu/Documents/ME 405 Mechatronics/405FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{C74E5638-49A5-4EAC-B998-5EAB364CB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09687248-5CE6-459D-87C7-6A1581433721}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="8_{C74E5638-49A5-4EAC-B998-5EAB364CB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{701C1A45-4B17-4300-B5CB-C25095A15CC5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E59C9523-20E0-4551-A743-8A1D2F973276}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>B5</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Manual Aim</t>
+  </si>
+  <si>
+    <t>"Go Button" GPIO</t>
+  </si>
+  <si>
+    <t>"Go Button" GND</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -511,10 +517,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,16 +543,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>425787</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38923</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>838163</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>348950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>54457</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502024</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -568,8 +575,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9165268" y="38923"/>
-          <a:ext cx="6649461" cy="5500053"/>
+          <a:off x="838163" y="4007223"/>
+          <a:ext cx="5186120" cy="4311541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,365 +885,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EB2B3C-FAE5-4BEF-B0D6-A9ECBFA27CF5}">
-  <dimension ref="A2:H21"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="129" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>38</v>
+        <v>71</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>9</v>
+        <v>79</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>11</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>14</v>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>2</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>